--- a/Fm22/Documentatie/testplan.xlsx
+++ b/Fm22/Documentatie/testplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjeer\Documents\Fm22 Scouting\Fm22\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58EADC4C-9F1C-4762-B4E8-7664C8C9477A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C919DFF9-099A-4C63-B504-C585F4DF8D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7C5060A4-936D-9647-91DC-A6B2C9670EC6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>Tester</t>
   </si>
@@ -113,18 +113,6 @@
     <t>Foutmelding bij een ander bestandstype dan csv</t>
   </si>
   <si>
-    <t>verkeerde bestand melding moet weg na een muisklik</t>
-  </si>
-  <si>
-    <t>melding gaat weg na een paar seconden of na een klik</t>
-  </si>
-  <si>
-    <t>Python script kan geen bestand vinden</t>
-  </si>
-  <si>
-    <t>Er komt een error in de console</t>
-  </si>
-  <si>
     <t>front-end kan geen connectie met de api maken</t>
   </si>
   <si>
@@ -143,7 +131,124 @@
     <t>api geeft een error wanneer hij de json export niet kan vinden</t>
   </si>
   <si>
-    <t>Er word geen waardige error gegeven</t>
+    <t>verkeerde bestand melding moet weg na 3 seconden</t>
+  </si>
+  <si>
+    <t>Bij een ingevuld CSV bestand komt er een groene melding dat het is geslaagd en bij een andere bestands type komt er een rode melding dat het is mislukt</t>
+  </si>
+  <si>
+    <t>geluidje wanneer een verkeerd bestand is gekozen</t>
+  </si>
+  <si>
+    <t>een audio event op basis van een afgekeurd bestand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">melding gaat weg na een paar seconden </t>
+  </si>
+  <si>
+    <t>beide meldingen gaan na ongeveer 3 seconden weg</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Melding kan ook eerder weg op basis van een Muisklik</t>
+  </si>
+  <si>
+    <t>In de popup event een onclick functie maken om de melding eerder te beëindigen</t>
+  </si>
+  <si>
+    <t>25 minuten</t>
+  </si>
+  <si>
+    <t>15 minuten</t>
+  </si>
+  <si>
+    <t>Python Mainscript kan geen CSV vinden</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Error 404 en de tabel wordt op een rare manier weergegeven</t>
+  </si>
+  <si>
+    <t>Wanneer het bestand is er niet is moet er een melding in de front end komen zodat de gebruiker het bestand de juiste naam kan geven</t>
+  </si>
+  <si>
+    <t>Er komt een FileNotFoundError in de console</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Een nette melding nodig  op de front-end die duidelijk uitlegt wat er verkeerd is </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er wordt gecontroleerd op het bestand en wanneer het bestand er niet is word er een melding weergegeven op de front-end en kan de gebruiker opnieuw het bestand inleveren </t>
+  </si>
+  <si>
+    <t>45 minuten</t>
+  </si>
+  <si>
+    <t>Er komt een error in de console en op de Front-End moet worden weergegeven dat de server eruit ligt</t>
+  </si>
+  <si>
+    <t>een melding zou handig zijn dat er server problemen zijn, en dat de tabel er normaal uit gaat zien</t>
+  </si>
+  <si>
+    <t>Error 404 omzetten naar een alert op de front-end, en wanneer er geen data is voor de tabel moet de tabel weggehaald worden</t>
+  </si>
+  <si>
+    <t>60 minuten</t>
+  </si>
+  <si>
+    <t>De oude export wordt overgeschreven zonder problemen</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>geen problemen</t>
+  </si>
+  <si>
+    <t>Misschien bestanden een andere naam geven en na 7 dagen verwijderen zodat de schijf niet vol raakt</t>
+  </si>
+  <si>
+    <t>30 minuten</t>
+  </si>
+  <si>
+    <t>De goals wordt gesorteerd op basis van hoeveel kliks en er komt een pijl om te laten zien op welke manier er gesorteerd wordt</t>
+  </si>
+  <si>
+    <t>Misschien meerdere columns sorteerbaar maken</t>
+  </si>
+  <si>
+    <t>Alle columns sorteerbaar maken op basis van getallen of alfabetische volgorde</t>
+  </si>
+  <si>
+    <t>Er komt een error in de console en op de front-end om de gebruiker te laten weten dat er een serverside fout is</t>
+  </si>
+  <si>
+    <t>De tabel wordt weer raar weergegeven en de error komt in de console</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>Op de front-end een melding dat er iets fout is gegaan met de server</t>
+  </si>
+  <si>
+    <t>De Error opvangen en op de front-end een melding maken dat er iets met de server is misgegaan</t>
+  </si>
+  <si>
+    <t>35 minuten</t>
+  </si>
+  <si>
+    <t>Het Project werkt en voor de volgende sprint moet er vooral gewerkt worden aan het afhandelen van onvoorziende situaties die kunnen voorkomen met het opslaan en ophalen van de bestanden</t>
+  </si>
+  <si>
+    <t>Tim Scheuneman</t>
+  </si>
+  <si>
+    <t>Lokaal 224</t>
   </si>
 </sst>
 </file>
@@ -516,7 +621,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -529,6 +633,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -852,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729C8A8D-A752-C943-B8A9-6A765CEF553E}">
   <dimension ref="B2:J35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -882,34 +987,40 @@
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="32" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" s="33"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
+      <c r="C5" s="40">
+        <v>45233</v>
+      </c>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
+      <c r="C6" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="36"/>
     </row>
     <row r="8" spans="2:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
     </row>
     <row r="9" spans="2:10" s="15" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B9" s="20" t="s">
@@ -952,10 +1063,10 @@
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
       <c r="H10" s="31"/>
-      <c r="I10" s="39" t="s">
+      <c r="I10" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="40"/>
+      <c r="J10" s="39"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -967,114 +1078,198 @@
       <c r="D11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="5"/>
+      <c r="E11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>3</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>6</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>7</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
@@ -1236,7 +1431,9 @@
       </c>
     </row>
     <row r="35" spans="2:10" ht="106.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="23"/>
+      <c r="B35" s="23" t="s">
+        <v>64</v>
+      </c>
       <c r="C35" s="24"/>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
@@ -1262,15 +1459,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005B0EC1FAAAA42C4496A256A8588BBC02" ma:contentTypeVersion="11" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="9792a31c0002c41574568a9118a84b63">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e7ef726-98e2-4935-a9dc-60c2bb9e7a54" xmlns:ns3="cbd5c7c3-611e-4a78-b8d0-dd4b5e5f5b42" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6255d5cdb94095758f44cb4b5eb5243b" ns2:_="" ns3:_="">
     <xsd:import namespace="1e7ef726-98e2-4935-a9dc-60c2bb9e7a54"/>
@@ -1465,6 +1653,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1477,14 +1674,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75BC0EFB-D1B8-44D1-A52A-6601CB2E3721}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9025CFBF-E90E-416E-88B1-CADC33AEF828}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1499,6 +1688,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75BC0EFB-D1B8-44D1-A52A-6601CB2E3721}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Fm22/Documentatie/testplan.xlsx
+++ b/Fm22/Documentatie/testplan.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjeer\Documents\Fm22 Scouting\Fm22\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C919DFF9-099A-4C63-B504-C585F4DF8D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A39F5D2-D3E6-4372-91DA-78A8E3CE7A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7C5060A4-936D-9647-91DC-A6B2C9670EC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="118">
+  <si>
+    <t>Testplan en testrapport voor implementatie grafisch ontwerp</t>
+  </si>
   <si>
     <t>Tester</t>
   </si>
@@ -45,6 +50,18 @@
     <t>Omgeving</t>
   </si>
   <si>
+    <t xml:space="preserve">Neem, indien beschikbaar, het programma van eisen als uitgangspunt voor het beschrijven van de testcases. De testcases zijn gericht op de informatiebehoefte, het functioneren van de applicatie, eisen aan layout en vormgeving en het al dan niet behalen van de doelstelling. </t>
+  </si>
+  <si>
+    <t>Testcase nr.</t>
+  </si>
+  <si>
+    <t>User story</t>
+  </si>
+  <si>
+    <t>Testcase</t>
+  </si>
+  <si>
     <t>Verwacht resultaat</t>
   </si>
   <si>
@@ -52,27 +69,6 @@
   </si>
   <si>
     <t>Pass/fail</t>
-  </si>
-  <si>
-    <t>Opmerking</t>
-  </si>
-  <si>
-    <t>in te vullen door developer</t>
-  </si>
-  <si>
-    <t>In te vullen door tester</t>
-  </si>
-  <si>
-    <t>Benodigde aanpassing</t>
-  </si>
-  <si>
-    <t>In te vullen door developer</t>
-  </si>
-  <si>
-    <t>Testcase nr.</t>
-  </si>
-  <si>
-    <t>Testcase</t>
   </si>
   <si>
     <r>
@@ -92,163 +88,322 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Neem, indien beschikbaar, het programma van eisen als uitgangspunt voor het beschrijven van de testcases. De testcases zijn gericht op de informatiebehoefte, het functioneren van de applicatie, eisen aan layout en vormgeving en het al dan niet behalen van de doelstelling. </t>
+    <t>Opmerking</t>
+  </si>
+  <si>
+    <t>Benodigde aanpassing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geschatte tijdsduur </t>
+  </si>
+  <si>
+    <t>in te vullen door developer</t>
+  </si>
+  <si>
+    <t>In te vullen door tester</t>
+  </si>
+  <si>
+    <t>In te vullen door developer</t>
   </si>
   <si>
     <t>Conclusie</t>
   </si>
   <si>
-    <t xml:space="preserve">Geschatte tijdsduur </t>
-  </si>
-  <si>
     <t>In te vullen door developer.</t>
   </si>
   <si>
-    <t>Testplan en testrapport voor implementatie grafisch ontwerp</t>
-  </si>
-  <si>
-    <t>front-end verstuurde bestand moet een csv zijn</t>
-  </si>
-  <si>
-    <t>Foutmelding bij een ander bestandstype dan csv</t>
-  </si>
-  <si>
-    <t>front-end kan geen connectie met de api maken</t>
-  </si>
-  <si>
-    <t>Json export heeft dezelfde naam als een andere json export</t>
-  </si>
-  <si>
-    <t>de oude export wordt overgeschreven</t>
-  </si>
-  <si>
-    <t>goals column kan asc en desc gesorteerd worden</t>
-  </si>
-  <si>
-    <t>de goals word gesorteerd op de manier dat de gebruiker wil</t>
-  </si>
-  <si>
-    <t>api geeft een error wanneer hij de json export niet kan vinden</t>
-  </si>
-  <si>
-    <t>verkeerde bestand melding moet weg na 3 seconden</t>
-  </si>
-  <si>
-    <t>Bij een ingevuld CSV bestand komt er een groene melding dat het is geslaagd en bij een andere bestands type komt er een rode melding dat het is mislukt</t>
-  </si>
-  <si>
-    <t>geluidje wanneer een verkeerd bestand is gekozen</t>
-  </si>
-  <si>
-    <t>een audio event op basis van een afgekeurd bestand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">melding gaat weg na een paar seconden </t>
-  </si>
-  <si>
-    <t>beide meldingen gaan na ongeveer 3 seconden weg</t>
+    <t>Tim Scheuneman</t>
+  </si>
+  <si>
+    <t>Thuis</t>
+  </si>
+  <si>
+    <t>CSV Uploaden</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>CSV uploaden met ongeldige data</t>
+  </si>
+  <si>
+    <t>Bestand Uploaden dat geen CSV is</t>
+  </si>
+  <si>
+    <t>er komt een popup in het scherm dat verteld dat het ongeldig is</t>
+  </si>
+  <si>
+    <t>Het bestand word afgewezen met een popup</t>
+  </si>
+  <si>
+    <t>Bestand wordt afgewezen en er komt een error in de console, Alleen geen melding naar de front-end</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Popup maken zodat de gebruiker weet wat er fout gaat</t>
+  </si>
+  <si>
+    <t>als het geuploaden bestand geen CSV is een melding sturen naar de gebruiker</t>
+  </si>
+  <si>
+    <t>20 minuten</t>
+  </si>
+  <si>
+    <t>Bestand wordt wel afgewezen, de tabel verdwijnd half omdat er geen data in zit</t>
+  </si>
+  <si>
+    <t>Popup maken, en zonder data de tabel weghalen</t>
+  </si>
+  <si>
+    <t>45 minuten</t>
+  </si>
+  <si>
+    <t>API post CSV</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>CSV wordt naar de api gestuurd</t>
+  </si>
+  <si>
+    <t>De API ontvangt het CSV bestand</t>
+  </si>
+  <si>
+    <t>de API ontvangt het CSV bestand</t>
   </si>
   <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>Melding kan ook eerder weg op basis van een Muisklik</t>
-  </si>
-  <si>
-    <t>In de popup event een onclick functie maken om de melding eerder te beëindigen</t>
-  </si>
-  <si>
-    <t>25 minuten</t>
+    <t>geen opmerkingen</t>
+  </si>
+  <si>
+    <t>Misschien een console.log maken dat het bestand is ontvangen</t>
+  </si>
+  <si>
+    <t>5 minuten</t>
+  </si>
+  <si>
+    <t>CSV wordt hernoemt en opgeslagen</t>
+  </si>
+  <si>
+    <t>CSV wordt ingelezen en krijgt vervolgens de data.csv naam om het vervolgens lokaal opteslaan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wanneer er een nieuw CSV bestand wordt geupload wordt de oude lokaal overschreven </t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Misschien bericht naar de gebruiker dat het bestand is geupload</t>
+  </si>
+  <si>
+    <t>CSV wordt gefilterd</t>
+  </si>
+  <si>
+    <t>CSV wordt gefilterd en vervolgens geëxporteerd als JSON</t>
+  </si>
+  <si>
+    <t>De geuploaden CSV wordt na het filteren lokaal als json opgeslagen met de juiste statistieken gefilterd</t>
+  </si>
+  <si>
+    <t>geen aanpassing nodig</t>
+  </si>
+  <si>
+    <t>JSON Export</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>JSON wordt lokaal opgeslagen met de naam DataFiltered.json</t>
+  </si>
+  <si>
+    <t>JSON wordt met de gefilterde data van de CSV gemaakt met de juiste naam</t>
+  </si>
+  <si>
+    <t>een melding in de console dat het bestand is aangemaakt</t>
+  </si>
+  <si>
+    <t>console print maken wanneer het bestand is geëxporteerd</t>
+  </si>
+  <si>
+    <t>vV</t>
+  </si>
+  <si>
+    <t>JSON komt overeen met gefilterde CSV</t>
+  </si>
+  <si>
+    <t>de geëxporteerde JSON lokaal wordt opgeslagen</t>
+  </si>
+  <si>
+    <t>JSON is hetzelfde als het gefilterde CSV bestand</t>
+  </si>
+  <si>
+    <t>JSON komt overeen met het gefilterde CSV</t>
+  </si>
+  <si>
+    <t>JSON Ophalen</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>JSON opvragen door API url</t>
+  </si>
+  <si>
+    <t>postman laat de JSON inhoud zien na de API request</t>
+  </si>
+  <si>
+    <t>Postman laat de JSON data zien</t>
+  </si>
+  <si>
+    <t>Controleren of de JSON overeenkomt met de lokale JSON</t>
+  </si>
+  <si>
+    <t>Lokale JSON  is hetzelfde als de JSON in postman</t>
+  </si>
+  <si>
+    <t>JSON's hebben beide dezelfed inhoud</t>
+  </si>
+  <si>
+    <t>tabel laten zien</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gefilterde data wordt weergegeven </t>
+  </si>
+  <si>
+    <t>de JSON data wordt in een gegenereerde html tabel gezet</t>
+  </si>
+  <si>
+    <t>Na het uploaden van een CSV komt er een tabel met de data</t>
+  </si>
+  <si>
+    <t>Geen geldige JSON wordt gemaakt</t>
+  </si>
+  <si>
+    <t>De tabel zonder geldige data wordt weggehaald en er komt een error message</t>
+  </si>
+  <si>
+    <t>tabel blijft staan en krijgt een rare vorm</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>Tabel moet weg als er geen geldige data is en er moet een bericht komen voor de gebruiker</t>
+  </si>
+  <si>
+    <t>Zonder geldige JSON moet het tabel weg en vervolgens een error bericht gestuurd worden</t>
+  </si>
+  <si>
+    <t>Kolomen zijn sorteerbaar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De kolomen zijn klikbaar en wordt na het klikken gesorteerd </t>
+  </si>
+  <si>
+    <t>Alleen goals kolom is klikbaar en wordt gesorteerd</t>
+  </si>
+  <si>
+    <t>alle kolommen moeten klikbaar en sorteerbaar zijn</t>
+  </si>
+  <si>
+    <t>Functie maken dat alle kolommen sorteerbaar zijn</t>
+  </si>
+  <si>
+    <t>40 minuten</t>
+  </si>
+  <si>
+    <t>sorteren</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>na 2 keer klikken wordt er aflopend gesorteerd</t>
+  </si>
+  <si>
+    <t>na 1 keer klikken wordt er oplopend gesorteerd</t>
+  </si>
+  <si>
+    <t>sorteren op basis van kliks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">na 1 klik aflopend sorteren </t>
   </si>
   <si>
     <t>15 minuten</t>
   </si>
   <si>
-    <t>Python Mainscript kan geen CSV vinden</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Error 404 en de tabel wordt op een rare manier weergegeven</t>
-  </si>
-  <si>
-    <t>Wanneer het bestand is er niet is moet er een melding in de front end komen zodat de gebruiker het bestand de juiste naam kan geven</t>
-  </si>
-  <si>
-    <t>Er komt een FileNotFoundError in de console</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Een nette melding nodig  op de front-end die duidelijk uitlegt wat er verkeerd is </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Er wordt gecontroleerd op het bestand en wanneer het bestand er niet is word er een melding weergegeven op de front-end en kan de gebruiker opnieuw het bestand inleveren </t>
-  </si>
-  <si>
-    <t>45 minuten</t>
-  </si>
-  <si>
-    <t>Er komt een error in de console en op de Front-End moet worden weergegeven dat de server eruit ligt</t>
-  </si>
-  <si>
-    <t>een melding zou handig zijn dat er server problemen zijn, en dat de tabel er normaal uit gaat zien</t>
-  </si>
-  <si>
-    <t>Error 404 omzetten naar een alert op de front-end, en wanneer er geen data is voor de tabel moet de tabel weggehaald worden</t>
-  </si>
-  <si>
-    <t>60 minuten</t>
-  </si>
-  <si>
-    <t>De oude export wordt overgeschreven zonder problemen</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>geen problemen</t>
-  </si>
-  <si>
-    <t>Misschien bestanden een andere naam geven en na 7 dagen verwijderen zodat de schijf niet vol raakt</t>
-  </si>
-  <si>
-    <t>30 minuten</t>
-  </si>
-  <si>
-    <t>De goals wordt gesorteerd op basis van hoeveel kliks en er komt een pijl om te laten zien op welke manier er gesorteerd wordt</t>
-  </si>
-  <si>
-    <t>Misschien meerdere columns sorteerbaar maken</t>
-  </si>
-  <si>
-    <t>Alle columns sorteerbaar maken op basis van getallen of alfabetische volgorde</t>
-  </si>
-  <si>
-    <t>Er komt een error in de console en op de front-end om de gebruiker te laten weten dat er een serverside fout is</t>
-  </si>
-  <si>
-    <t>De tabel wordt weer raar weergegeven en de error komt in de console</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>Op de front-end een melding dat er iets fout is gegaan met de server</t>
-  </si>
-  <si>
-    <t>De Error opvangen en op de front-end een melding maken dat er iets met de server is misgegaan</t>
-  </si>
-  <si>
-    <t>35 minuten</t>
-  </si>
-  <si>
-    <t>Het Project werkt en voor de volgende sprint moet er vooral gewerkt worden aan het afhandelen van onvoorziende situaties die kunnen voorkomen met het opslaan en ophalen van de bestanden</t>
-  </si>
-  <si>
-    <t>Tim Scheuneman</t>
-  </si>
-  <si>
-    <t>Lokaal 224</t>
+    <t>sort order omzetten</t>
+  </si>
+  <si>
+    <t>2 keer klikken aflopend sorteren</t>
+  </si>
+  <si>
+    <t>na 2 kliks oplopend sorteren</t>
+  </si>
+  <si>
+    <t>10 minuten</t>
+  </si>
+  <si>
+    <t>sorteer pijlen</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>pijl op basis van de sort</t>
+  </si>
+  <si>
+    <t>op basis van op of aflopend sorteren komt er in de desbetreffende kolomn een pijl te staan</t>
+  </si>
+  <si>
+    <t>er komt een pijl in de kolom op basis van het sorteren</t>
+  </si>
+  <si>
+    <t>Pijl iets duidelijker maken</t>
+  </si>
+  <si>
+    <t>Manier zoeken om de pijl aantepassen</t>
+  </si>
+  <si>
+    <t>Er moet meer errors voor de gebruikers worden weergegeven zodat ze weten wat er fout is gegaan, verder moet de tabel ook meer response naar de gebruiker geven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wanneer het bestand niet is wat het script verwacht een melding geven. </t>
   </si>
 </sst>
 </file>
@@ -308,7 +463,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -566,11 +721,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -610,10 +848,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -621,6 +869,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -633,7 +882,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -955,514 +1203,735 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729C8A8D-A752-C943-B8A9-6A765CEF553E}">
-  <dimension ref="B2:J35"/>
+  <dimension ref="B2:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.69921875" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="31.796875" customWidth="1"/>
-    <col min="5" max="5" width="20.69921875" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="15.796875" customWidth="1"/>
-    <col min="9" max="9" width="32.296875" customWidth="1"/>
-    <col min="10" max="10" width="21" customWidth="1"/>
+    <col min="2" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="31.8984375" customWidth="1"/>
+    <col min="6" max="6" width="20.59765625" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="15.8984375" customWidth="1"/>
+    <col min="10" max="10" width="32.3984375" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:11" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="2:10" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="2:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="41"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="42">
+        <v>45235</v>
+      </c>
+      <c r="E5" s="43"/>
+    </row>
+    <row r="6" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="45"/>
+    </row>
+    <row r="8" spans="2:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+    </row>
+    <row r="9" spans="2:11" s="15" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="48"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="27">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="27">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="27">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="27">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="27">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="3">
+        <v>3</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="27">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="27">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="27">
+        <v>4</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="33"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="40">
-        <v>45233</v>
-      </c>
-      <c r="D5" s="34"/>
-    </row>
-    <row r="6" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="11" t="s">
+      <c r="E20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="27">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="27">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="27">
+        <v>6</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="27">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="36"/>
-    </row>
-    <row r="8" spans="2:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-    </row>
-    <row r="9" spans="2:10" s="15" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="19" t="s">
+      <c r="I26" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="27">
         <v>6</v>
       </c>
-      <c r="I9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="26" t="s">
+      <c r="D27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="3">
+        <v>2</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="3"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="27">
         <v>7</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29" t="s">
+      <c r="D29" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="28">
+        <v>7</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" s="14"/>
+      <c r="I30" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B31" s="29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B32" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32">
         <v>8</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="39"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="D32" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" t="s">
+        <v>113</v>
+      </c>
+      <c r="G32" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" t="s">
+        <v>114</v>
+      </c>
+      <c r="J32" t="s">
+        <v>115</v>
+      </c>
+      <c r="K32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="3">
-        <v>3</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="4">
-        <v>2</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="3">
-        <v>3</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="4">
-        <v>3</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="4">
-        <v>4</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="4">
-        <v>5</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="4">
-        <v>6</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="3">
-        <v>2</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="4">
-        <v>7</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="3">
-        <v>3</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="4">
-        <v>8</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="4">
-        <v>9</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="4">
-        <v>10</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="4"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="4"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="4"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="4"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="4"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="4"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="4"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="6"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="7"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" ht="106.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="25"/>
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="2:11" ht="107.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005B0EC1FAAAA42C4496A256A8588BBC02" ma:contentTypeVersion="11" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="9792a31c0002c41574568a9118a84b63">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e7ef726-98e2-4935-a9dc-60c2bb9e7a54" xmlns:ns3="cbd5c7c3-611e-4a78-b8d0-dd4b5e5f5b42" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6255d5cdb94095758f44cb4b5eb5243b" ns2:_="" ns3:_="">
-    <xsd:import namespace="1e7ef726-98e2-4935-a9dc-60c2bb9e7a54"/>
-    <xsd:import namespace="cbd5c7c3-611e-4a78-b8d0-dd4b5e5f5b42"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010061BC533D479D1848A12832167C06C9C0" ma:contentTypeVersion="3" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8e15f8a06ac5f829422134829f444f90">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1d4d6c1f-5786-4745-9597-0f03877e459a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0b0d20aed045db69c3fe18d935707129" ns2:_="">
+    <xsd:import namespace="1d4d6c1f-5786-4745-9597-0f03877e459a"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -1471,14 +1940,7 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1486,7 +1948,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1e7ef726-98e2-4935-a9dc-60c2bb9e7a54" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1d4d6c1f-5786-4745-9597-0f03877e459a" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -1499,59 +1961,10 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="11" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="12" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="13" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Afbeeldingtags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="326ff767-adaa-4201-a4eb-e1f8fdc4e2f7" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cbd5c7c3-611e-4a78-b8d0-dd4b5e5f5b42" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{77d57f1d-98ef-4766-9455-1bbdae87e65d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="cbd5c7c3-611e-4a78-b8d0-dd4b5e5f5b42">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -1653,35 +2066,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75BC0EFB-D1B8-44D1-A52A-6601CB2E3721}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="cbd5c7c3-611e-4a78-b8d0-dd4b5e5f5b42" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e7ef726-98e2-4935-a9dc-60c2bb9e7a54">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E6DCE8-A882-4407-8589-66B736E056A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9025CFBF-E90E-416E-88B1-CADC33AEF828}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5599AA49-395F-455D-8864-A9968C0BB5AB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e7ef726-98e2-4935-a9dc-60c2bb9e7a54"/>
-    <ds:schemaRef ds:uri="cbd5c7c3-611e-4a78-b8d0-dd4b5e5f5b42"/>
+    <ds:schemaRef ds:uri="1d4d6c1f-5786-4745-9597-0f03877e459a"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1690,29 +2099,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75BC0EFB-D1B8-44D1-A52A-6601CB2E3721}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E6DCE8-A882-4407-8589-66B736E056A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="cbd5c7c3-611e-4a78-b8d0-dd4b5e5f5b42"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1e7ef726-98e2-4935-a9dc-60c2bb9e7a54"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>